--- a/Dashboards-test/SPEEDY.xlsx
+++ b/Dashboards-test/SPEEDY.xlsx
@@ -26,7 +26,7 @@
     <x:definedName name="DatesKDR">'KDR Per Day'!$D$1:$Q$1</x:definedName>
     <x:definedName name="DatesXP">'XP Per Day'!$E$1:$R$1</x:definedName>
     <x:definedName name="PlayersKDR">'KDR Per Day'!$A$2:$Q$41</x:definedName>
-    <x:definedName name="PlayersXP">'XP Per Day'!$A$2:$P$41</x:definedName>
+    <x:definedName name="PlayersXP">'XP Per Day'!$A$2:$R$41</x:definedName>
   </x:definedNames>
   <x:calcPr calcId="191029"/>
   <x:extLst>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="203">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="222">
   <x:si>
     <x:t>Player</x:t>
   </x:si>
@@ -61,7 +61,7 @@
     <x:t>Battlers</x:t>
   </x:si>
   <x:si>
-    <x:t>The bes</x:t>
+    <x:t>yzz</x:t>
   </x:si>
   <x:si>
     <x:t>Dark_assasin</x:t>
@@ -73,33 +73,33 @@
     <x:t>Astro Man</x:t>
   </x:si>
   <x:si>
+    <x:t>Cut3b0nk</x:t>
+  </x:si>
+  <x:si>
     <x:t>iampig</x:t>
   </x:si>
   <x:si>
-    <x:t>Cut3b0nk</x:t>
-  </x:si>
-  <x:si>
     <x:t>Deathgun MAX</x:t>
   </x:si>
   <x:si>
+    <x:t>APTX4869</x:t>
+  </x:si>
+  <x:si>
     <x:t>Power X</x:t>
   </x:si>
   <x:si>
-    <x:t>APTX4869</x:t>
+    <x:t>arjabrawlstars</x:t>
   </x:si>
   <x:si>
     <x:t>Monste</x:t>
   </x:si>
   <x:si>
-    <x:t>arjabrawlstars</x:t>
+    <x:t>X_xNashx_X</x:t>
   </x:si>
   <x:si>
     <x:t>SorryBroIAmPro</x:t>
   </x:si>
   <x:si>
-    <x:t>X_xNashx_X</x:t>
-  </x:si>
-  <x:si>
     <x:t>youselves</x:t>
   </x:si>
   <x:si>
@@ -109,9 +109,6 @@
     <x:t>Noob Equals Pro</x:t>
   </x:si>
   <x:si>
-    <x:t>KickOnur09</x:t>
-  </x:si>
-  <x:si>
     <x:t>Ian2048</x:t>
   </x:si>
   <x:si>
@@ -175,10 +172,13 @@
     <x:t>Indian</x:t>
   </x:si>
   <x:si>
+    <x:t>DRK_ev1l</x:t>
+  </x:si>
+  <x:si>
     <x:t>Average KDR</x:t>
   </x:si>
   <x:si>
-    <x:t>5,2 (3140/601)</x:t>
+    <x:t>5,2 (3382/650)</x:t>
   </x:si>
   <x:si>
     <x:t>- (/)</x:t>
@@ -217,6 +217,12 @@
     <x:t>3,1 (88/28)</x:t>
   </x:si>
   <x:si>
+    <x:t>3,7 (97/26)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6,3 (145/23)</x:t>
+  </x:si>
+  <x:si>
     <x:t>4,9 (44/9)</x:t>
   </x:si>
   <x:si>
@@ -232,7 +238,46 @@
     <x:t>1,0 (1/0)</x:t>
   </x:si>
   <x:si>
-    <x:t>2,2 (332/151)</x:t>
+    <x:t>2,3 (759/336)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,0 (10/10)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,4 (44/32)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,8 (61/34)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,8 (7/4)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,3 (4/3)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,3 (40/31)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,0 (49/24)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,8 (59/33)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,2 (83/20)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,4 (46/32)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,5 (117/47)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,6 (239/66)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,2 (618/280)</x:t>
   </x:si>
   <x:si>
     <x:t>2,5 (200/80)</x:t>
@@ -241,7 +286,49 @@
     <x:t>1,9 (132/71)</x:t>
   </x:si>
   <x:si>
-    <x:t>2,1 (947/444)</x:t>
+    <x:t>1,9 (195/100)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,1 (91/29)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,1 (823/391)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,9 (176/94)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,5 (38/25)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,9 (89/47)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,5 (51/34)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,6 (93/36)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,2 (26/12)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,4 (189/79)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11,0 (22/2)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,1 (39/19)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,2 (89/40)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,7 (11/3)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,1 (1251/606)</x:t>
   </x:si>
   <x:si>
     <x:t>2,6 (121/47)</x:t>
@@ -274,40 +361,49 @@
     <x:t>2,6 (150/57)</x:t>
   </x:si>
   <x:si>
-    <x:t>2,1 (723/348)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,9 (176/94)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,5 (38/25)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,9 (89/47)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,5 (51/34)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,6 (93/36)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,2 (26/12)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,4 (189/79)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11,0 (22/2)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,1 (39/19)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,0 (2/1)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,0 (1178/590)</x:t>
+    <x:t>1,8 (84/46)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,9 (220/116)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,0 (4074/2006)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,8 (198/110)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,0 (238/120)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,9 (631/329)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,0 (517/258)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,6 (172/108)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,1 (260/126)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,5 (88/58)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,4 (134/55)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,2 (126/58)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,3 (197/87)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,2 (1513/697)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,0 (1297/648)</x:t>
   </x:si>
   <x:si>
     <x:t>1,9 (109/58)</x:t>
@@ -340,37 +436,10 @@
     <x:t>2,1 (159/75)</x:t>
   </x:si>
   <x:si>
-    <x:t>2,0 (2561/1309)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,8 (198/110)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,0 (238/120)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,9 (631/329)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,0 (517/258)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,6 (172/108)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,1 (260/126)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,5 (88/58)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,4 (134/55)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,2 (126/58)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,3 (197/87)</x:t>
+    <x:t>2,1 (63/30)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,0 (56/28)</x:t>
   </x:si>
   <x:si>
     <x:t>1,8 (161/88)</x:t>
@@ -388,40 +457,7 @@
     <x:t>1,7 (50/30)</x:t>
   </x:si>
   <x:si>
-    <x:t>1,8 (403/223)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,0 (10/10)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,4 (44/32)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,8 (61/34)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,8 (7/4)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,3 (4/3)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,3 (40/31)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,0 (49/24)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,8 (59/33)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4,2 (83/20)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,4 (46/32)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,8 (1808/1003)</x:t>
+    <x:t>1,8 (1808/1004)</x:t>
   </x:si>
   <x:si>
     <x:t>1,3 (107/81)</x:t>
@@ -448,7 +484,46 @@
     <x:t>1,5 (19/13)</x:t>
   </x:si>
   <x:si>
-    <x:t>1,5 (1480/981)</x:t>
+    <x:t>0,0 (0/1)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,5 (857/558)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,1 (84/74)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,9 (140/74)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,7 (93/55)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,3 (35/15)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,6 (45/28)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,4 (126/93)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,0 (67/66)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,3 (60/45)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,8 (58/33)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,7 (110/41)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,1 (39/34)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,5 (1627/1062)</x:t>
   </x:si>
   <x:si>
     <x:t>1,2 (120/100)</x:t>
@@ -478,7 +553,13 @@
     <x:t>1,8 (142/77)</x:t>
   </x:si>
   <x:si>
-    <x:t>1,5 (744/494)</x:t>
+    <x:t>1,9 (118/63)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,6 (29/18)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,5 (778/518)</x:t>
   </x:si>
   <x:si>
     <x:t>1,8 (147/84)</x:t>
@@ -508,37 +589,31 @@
     <x:t>1,8 (33/18)</x:t>
   </x:si>
   <x:si>
-    <x:t>1,5 (708/483)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,1 (84/74)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,9 (140/74)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,7 (93/55)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,3 (35/15)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,6 (45/28)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,4 (126/93)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,0 (67/66)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,3 (60/45)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,8 (58/33)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,3 (707/538)</x:t>
+    <x:t>1,4 (34/24)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,3 (1528/1143)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,6 (472/296)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,3 (345/267)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,3 (223/174)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,2 (225/187)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,1 (150/131)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,3 (113/88)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,3 (875/667)</x:t>
   </x:si>
   <x:si>
     <x:t>1,0 (105/107)</x:t>
@@ -565,37 +640,13 @@
     <x:t>1,9 (89/48)</x:t>
   </x:si>
   <x:si>
-    <x:t>0,9 (2307/2689)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0,6 (51/90)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0,8 (203/243)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0,7 (236/337)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0,9 (380/441)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,1 (116/110)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,0 (204/203)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0,7 (254/346)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0,7 (33/45)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0,9 (830/874)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0,7 (424/598)</x:t>
+    <x:t>1,1 (71/66)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,5 (97/63)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0,7 (524/733)</x:t>
   </x:si>
   <x:si>
     <x:t>0,4 (4/10)</x:t>
@@ -625,7 +676,10 @@
     <x:t>0,6 (18/30)</x:t>
   </x:si>
   <x:si>
-    <x:t>0,7 (170/245)</x:t>
+    <x:t>0,7 (100/134)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0,7 (281/397)</x:t>
   </x:si>
   <x:si>
     <x:t>0,8 (11/13)</x:t>
@@ -655,7 +709,10 @@
     <x:t>1,0 (8/8)</x:t>
   </x:si>
   <x:si>
-    <x:t>0,0 (0/1)</x:t>
+    <x:t>0,6 (55/90)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0,9 (56/62)</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1135,10 +1192,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C2" s="15" t="n">
-        <x:v>11941.9854280304</x:v>
+        <x:v>10761.6338685898</x:v>
       </x:c>
       <x:c r="D2" s="15" t="n">
-        <x:v>1169292.757375</x:v>
+        <x:v>1177832.15795834</x:v>
       </x:c>
       <x:c r="E2" s="16" t="s"/>
       <x:c r="F2" s="16" t="n">
@@ -1173,6 +1230,12 @@
       </x:c>
       <x:c r="P2" s="16" t="n">
         <x:v>2803.02441666648</x:v>
+      </x:c>
+      <x:c r="Q2" s="16" t="n">
+        <x:v>2863.41950000008</x:v>
+      </x:c>
+      <x:c r="R2" s="16" t="n">
+        <x:v>5675.98108333349</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:146" x14ac:dyDescent="0.25">
@@ -1180,40 +1243,38 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C3" s="15" t="n">
-        <x:v>8584.16487962963</x:v>
+        <x:v>9714.37195238097</x:v>
       </x:c>
       <x:c r="D3" s="15" t="n">
-        <x:v>147518.587708333</x:v>
+        <x:v>593354.598166662</x:v>
       </x:c>
       <x:c r="E3" s="16" t="s"/>
       <x:c r="F3" s="16" t="s"/>
       <x:c r="G3" s="16" t="s"/>
-      <x:c r="H3" s="16" t="n">
-        <x:v>1265.08383333334</x:v>
-      </x:c>
-      <x:c r="I3" s="16" t="n">
-        <x:v>5993.51260416667</x:v>
-      </x:c>
+      <x:c r="H3" s="16" t="s"/>
+      <x:c r="I3" s="16" t="s"/>
       <x:c r="J3" s="16" t="n">
-        <x:v>6467.8202708333</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K3" s="16" t="n">
-        <x:v>15364.3109583333</x:v>
+        <x:v>23200.8847916668</x:v>
       </x:c>
       <x:c r="L3" s="16" t="n">
-        <x:v>3272.94250000003</x:v>
+        <x:v>14125.3296250001</x:v>
       </x:c>
       <x:c r="M3" s="16" t="n">
-        <x:v>5365.12216666673</x:v>
+        <x:v>9381.02433333307</x:v>
       </x:c>
       <x:c r="N3" s="16" t="n">
-        <x:v>9046.47785416667</x:v>
-      </x:c>
-      <x:c r="O3" s="16" t="n">
-        <x:v>893.273249999998</x:v>
-      </x:c>
-      <x:c r="P3" s="16" t="n">
-        <x:v>29588.9404791666</x:v>
+        <x:v>12442.4968333333</x:v>
+      </x:c>
+      <x:c r="O3" s="16" t="s"/>
+      <x:c r="P3" s="16" t="s"/>
+      <x:c r="Q3" s="16" t="n">
+        <x:v>5386.7943333335</x:v>
+      </x:c>
+      <x:c r="R3" s="16" t="n">
+        <x:v>3464.07374999998</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:146">
@@ -1221,10 +1282,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C4" s="15" t="n">
-        <x:v>7307.83074999999</x:v>
+        <x:v>9467.46990384619</x:v>
       </x:c>
       <x:c r="D4" s="15" t="n">
-        <x:v>345891.145291666</x:v>
+        <x:v>388582.115791666</x:v>
       </x:c>
       <x:c r="E4" s="16" t="s"/>
       <x:c r="F4" s="16" t="n">
@@ -1259,6 +1320,12 @@
       </x:c>
       <x:c r="P4" s="16" t="n">
         <x:v>5971.83641666657</x:v>
+      </x:c>
+      <x:c r="Q4" s="16" t="n">
+        <x:v>42690.9705000005</x:v>
+      </x:c>
+      <x:c r="R4" s="16" t="n">
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:146">
@@ -1266,10 +1333,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C5" s="15" t="n">
-        <x:v>6922.03912689398</x:v>
+        <x:v>5857.27953044875</x:v>
       </x:c>
       <x:c r="D5" s="15" t="n">
-        <x:v>1031556.3911875</x:v>
+        <x:v>1031558.5946875</x:v>
       </x:c>
       <x:c r="E5" s="16" t="s"/>
       <x:c r="F5" s="16" t="n">
@@ -1303,6 +1370,12 @@
         <x:v>454.634583333391</x:v>
       </x:c>
       <x:c r="P5" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q5" s="16" t="n">
+        <x:v>2.20349999994505</x:v>
+      </x:c>
+      <x:c r="R5" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
     </x:row>
@@ -1311,10 +1384,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C6" s="15" t="n">
-        <x:v>4782.78540151513</x:v>
+        <x:v>4452.02964423075</x:v>
       </x:c>
       <x:c r="D6" s="15" t="n">
-        <x:v>183188.7785</x:v>
+        <x:v>188454.524458333</x:v>
       </x:c>
       <x:c r="E6" s="16" t="s"/>
       <x:c r="F6" s="16" t="n">
@@ -1349,6 +1422,12 @@
       </x:c>
       <x:c r="P6" s="16" t="n">
         <x:v>3751.97458333339</x:v>
+      </x:c>
+      <x:c r="Q6" s="16" t="n">
+        <x:v>4450.47083333341</x:v>
+      </x:c>
+      <x:c r="R6" s="16" t="n">
+        <x:v>815.275124999986</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:146">
@@ -1356,44 +1435,50 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C7" s="15" t="n">
-        <x:v>4754.67823674243</x:v>
+        <x:v>4363.67907211536</x:v>
       </x:c>
       <x:c r="D7" s="15" t="n">
-        <x:v>758749.296270834</x:v>
+        <x:v>394943.949562499</x:v>
       </x:c>
       <x:c r="E7" s="16" t="s"/>
       <x:c r="F7" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G7" s="16" t="n">
-        <x:v>6396.86952083337</x:v>
+        <x:v>7478.06106249994</x:v>
       </x:c>
       <x:c r="H7" s="16" t="n">
-        <x:v>3084.06575000018</x:v>
+        <x:v>2884.79258333327</x:v>
       </x:c>
       <x:c r="I7" s="16" t="n">
-        <x:v>1855.25850000011</x:v>
+        <x:v>3175.45083333331</x:v>
       </x:c>
       <x:c r="J7" s="16" t="n">
-        <x:v>3453.38670833327</x:v>
+        <x:v>7448.19308333332</x:v>
       </x:c>
       <x:c r="K7" s="16" t="n">
-        <x:v>10054.9884166665</x:v>
+        <x:v>2935.41635416663</x:v>
       </x:c>
       <x:c r="L7" s="16" t="n">
-        <x:v>2923.29066666681</x:v>
+        <x:v>2270.95845833333</x:v>
       </x:c>
       <x:c r="M7" s="16" t="n">
-        <x:v>3855.1275416665</x:v>
+        <x:v>5373.68800000002</x:v>
       </x:c>
       <x:c r="N7" s="16" t="n">
-        <x:v>11648.4936250001</x:v>
+        <x:v>931.434291666606</x:v>
       </x:c>
       <x:c r="O7" s="16" t="n">
-        <x:v>4333.8932291664</x:v>
+        <x:v>6245.07064583316</x:v>
       </x:c>
       <x:c r="P7" s="16" t="n">
-        <x:v>4696.08664583345</x:v>
+        <x:v>8006.53270833334</x:v>
+      </x:c>
+      <x:c r="Q7" s="16" t="n">
+        <x:v>3031.89800000004</x:v>
+      </x:c>
+      <x:c r="R7" s="16" t="n">
+        <x:v>6946.33191666671</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:146">
@@ -1401,44 +1486,50 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C8" s="15" t="n">
-        <x:v>4249.96345643936</x:v>
+        <x:v>4261.80970032052</x:v>
       </x:c>
       <x:c r="D8" s="15" t="n">
-        <x:v>384965.719645832</x:v>
+        <x:v>761851.361770834</x:v>
       </x:c>
       <x:c r="E8" s="16" t="s"/>
       <x:c r="F8" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G8" s="16" t="n">
-        <x:v>7478.06106249994</x:v>
+        <x:v>6396.86952083337</x:v>
       </x:c>
       <x:c r="H8" s="16" t="n">
-        <x:v>2884.79258333327</x:v>
+        <x:v>3084.06575000018</x:v>
       </x:c>
       <x:c r="I8" s="16" t="n">
-        <x:v>3175.45083333331</x:v>
+        <x:v>1855.25850000011</x:v>
       </x:c>
       <x:c r="J8" s="16" t="n">
-        <x:v>7448.19308333332</x:v>
+        <x:v>3453.38670833327</x:v>
       </x:c>
       <x:c r="K8" s="16" t="n">
-        <x:v>2935.41635416663</x:v>
+        <x:v>10054.9884166665</x:v>
       </x:c>
       <x:c r="L8" s="16" t="n">
-        <x:v>2270.95845833333</x:v>
+        <x:v>2923.29066666681</x:v>
       </x:c>
       <x:c r="M8" s="16" t="n">
-        <x:v>5373.68800000002</x:v>
+        <x:v>3855.1275416665</x:v>
       </x:c>
       <x:c r="N8" s="16" t="n">
-        <x:v>931.434291666606</x:v>
+        <x:v>11648.4936250001</x:v>
       </x:c>
       <x:c r="O8" s="16" t="n">
-        <x:v>6245.07064583316</x:v>
+        <x:v>4333.8932291664</x:v>
       </x:c>
       <x:c r="P8" s="16" t="n">
-        <x:v>8006.53270833334</x:v>
+        <x:v>4696.08664583345</x:v>
+      </x:c>
+      <x:c r="Q8" s="16" t="n">
+        <x:v>1490.87383333337</x:v>
+      </x:c>
+      <x:c r="R8" s="16" t="n">
+        <x:v>1611.19166666665</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:146">
@@ -1446,10 +1537,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C9" s="15" t="n">
-        <x:v>3779.06444318176</x:v>
+        <x:v>3420.96166025636</x:v>
       </x:c>
       <x:c r="D9" s="15" t="n">
-        <x:v>1093871.3396875</x:v>
+        <x:v>1096774.13239583</x:v>
       </x:c>
       <x:c r="E9" s="16" t="s"/>
       <x:c r="F9" s="16" t="n">
@@ -1484,6 +1575,12 @@
       </x:c>
       <x:c r="P9" s="16" t="n">
         <x:v>1849.25216666656</x:v>
+      </x:c>
+      <x:c r="Q9" s="16" t="n">
+        <x:v>2549.19004166662</x:v>
+      </x:c>
+      <x:c r="R9" s="16" t="n">
+        <x:v>353.602666666731</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:146">
@@ -1491,44 +1588,50 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C10" s="15" t="n">
-        <x:v>3080.61685984848</x:v>
+        <x:v>2789.75601923076</x:v>
       </x:c>
       <x:c r="D10" s="15" t="n">
-        <x:v>161726.2148125</x:v>
+        <x:v>116806.140979167</x:v>
       </x:c>
       <x:c r="E10" s="16" t="s"/>
       <x:c r="F10" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G10" s="16" t="n">
-        <x:v>486.63691666667</x:v>
+        <x:v>156.264166666675</x:v>
       </x:c>
       <x:c r="H10" s="16" t="n">
-        <x:v>5221.04249999995</x:v>
+        <x:v>928.281666666662</x:v>
       </x:c>
       <x:c r="I10" s="16" t="n">
-        <x:v>631.98608333341</x:v>
+        <x:v>1739.23599999999</x:v>
       </x:c>
       <x:c r="J10" s="16" t="n">
-        <x:v>7667.24799999996</x:v>
+        <x:v>94.8336666666582</x:v>
       </x:c>
       <x:c r="K10" s="16" t="n">
-        <x:v>2361.44741666669</x:v>
+        <x:v>63.3654999999999</x:v>
       </x:c>
       <x:c r="L10" s="16" t="n">
-        <x:v>3379.33849999995</x:v>
+        <x:v>5963.90366666667</x:v>
       </x:c>
       <x:c r="M10" s="16" t="n">
-        <x:v>7690.85933333336</x:v>
+        <x:v>1672.2923333333</x:v>
       </x:c>
       <x:c r="N10" s="16" t="n">
-        <x:v>2578.67433333333</x:v>
+        <x:v>2472.56541666668</x:v>
       </x:c>
       <x:c r="O10" s="16" t="n">
-        <x:v>2791.11666666664</x:v>
+        <x:v>9339.8541666667</x:v>
       </x:c>
       <x:c r="P10" s="16" t="n">
-        <x:v>1078.4357083333</x:v>
+        <x:v>1602.63658333333</x:v>
+      </x:c>
+      <x:c r="Q10" s="16" t="n">
+        <x:v>3192.4485</x:v>
+      </x:c>
+      <x:c r="R10" s="16" t="n">
+        <x:v>9041.14658333323</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:146">
@@ -1536,44 +1639,50 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C11" s="15" t="n">
-        <x:v>2184.83937878788</x:v>
+        <x:v>2691.23145833333</x:v>
       </x:c>
       <x:c r="D11" s="15" t="n">
-        <x:v>104572.545895834</x:v>
+        <x:v>162825.4383125</x:v>
       </x:c>
       <x:c r="E11" s="16" t="s"/>
       <x:c r="F11" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G11" s="16" t="n">
-        <x:v>156.264166666675</x:v>
+        <x:v>486.63691666667</x:v>
       </x:c>
       <x:c r="H11" s="16" t="n">
-        <x:v>928.281666666662</x:v>
+        <x:v>5221.04249999995</x:v>
       </x:c>
       <x:c r="I11" s="16" t="n">
-        <x:v>1739.23599999999</x:v>
+        <x:v>631.98608333341</x:v>
       </x:c>
       <x:c r="J11" s="16" t="n">
-        <x:v>94.8336666666582</x:v>
+        <x:v>7667.24799999996</x:v>
       </x:c>
       <x:c r="K11" s="16" t="n">
-        <x:v>63.3654999999999</x:v>
+        <x:v>2361.44741666669</x:v>
       </x:c>
       <x:c r="L11" s="16" t="n">
-        <x:v>5963.90366666667</x:v>
+        <x:v>3379.33849999995</x:v>
       </x:c>
       <x:c r="M11" s="16" t="n">
-        <x:v>1672.2923333333</x:v>
+        <x:v>7690.85933333336</x:v>
       </x:c>
       <x:c r="N11" s="16" t="n">
-        <x:v>2472.56541666668</x:v>
+        <x:v>2578.67433333333</x:v>
       </x:c>
       <x:c r="O11" s="16" t="n">
-        <x:v>9339.8541666667</x:v>
+        <x:v>2791.11666666664</x:v>
       </x:c>
       <x:c r="P11" s="16" t="n">
-        <x:v>1602.63658333333</x:v>
+        <x:v>1078.4357083333</x:v>
+      </x:c>
+      <x:c r="Q11" s="16" t="n">
+        <x:v>1099.22350000002</x:v>
+      </x:c>
+      <x:c r="R11" s="16" t="n">
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:146">
@@ -1581,46 +1690,50 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="C12" s="15" t="n">
-        <x:v>2076.04714409721</x:v>
+        <x:v>2233.73844871796</x:v>
       </x:c>
       <x:c r="D12" s="15" t="n">
-        <x:v>189671.123666666</x:v>
-      </x:c>
-      <x:c r="E12" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
+        <x:v>192929.871062499</x:v>
+      </x:c>
+      <x:c r="E12" s="16" t="s"/>
       <x:c r="F12" s="16" t="n">
-        <x:v>2726.15674999997</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G12" s="16" t="n">
-        <x:v>5561.89620833332</x:v>
+        <x:v>4280.69208333336</x:v>
       </x:c>
       <x:c r="H12" s="16" t="n">
-        <x:v>3049.2388541667</x:v>
+        <x:v>1326.46633333329</x:v>
       </x:c>
       <x:c r="I12" s="16" t="n">
-        <x:v>3257.50199999998</x:v>
+        <x:v>3002.39950000003</x:v>
       </x:c>
       <x:c r="J12" s="16" t="n">
-        <x:v>1245.68460416663</x:v>
+        <x:v>2769.96870833338</x:v>
       </x:c>
       <x:c r="K12" s="16" t="n">
-        <x:v>3867.46039583336</x:v>
+        <x:v>2679.0279166667</x:v>
       </x:c>
       <x:c r="L12" s="16" t="n">
-        <x:v>1473.076</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M12" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>859.904458333331</x:v>
       </x:c>
       <x:c r="N12" s="16" t="n">
-        <x:v>1382.35049999997</x:v>
+        <x:v>2250.82337499998</x:v>
       </x:c>
       <x:c r="O12" s="16" t="n">
-        <x:v>2349.20041666663</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P12" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>2054.68762499999</x:v>
+      </x:c>
+      <x:c r="Q12" s="16" t="n">
+        <x:v>7798.18283333338</x:v>
+      </x:c>
+      <x:c r="R12" s="16" t="n">
+        <x:v>2016.44699999999</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:146" x14ac:dyDescent="0.25">
@@ -1628,139 +1741,159 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C13" s="15" t="n">
-        <x:v>1747.63363636364</x:v>
+        <x:v>2115.55285267856</x:v>
       </x:c>
       <x:c r="D13" s="15" t="n">
-        <x:v>183115.241229166</x:v>
-      </x:c>
-      <x:c r="E13" s="16" t="s"/>
+        <x:v>194376.297874999</x:v>
+      </x:c>
+      <x:c r="E13" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
       <x:c r="F13" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>2726.15674999997</x:v>
       </x:c>
       <x:c r="G13" s="16" t="n">
-        <x:v>4280.69208333336</x:v>
+        <x:v>5561.89620833332</x:v>
       </x:c>
       <x:c r="H13" s="16" t="n">
-        <x:v>1326.46633333329</x:v>
+        <x:v>3049.2388541667</x:v>
       </x:c>
       <x:c r="I13" s="16" t="n">
-        <x:v>3002.39950000003</x:v>
+        <x:v>3257.50199999998</x:v>
       </x:c>
       <x:c r="J13" s="16" t="n">
-        <x:v>2769.96870833338</x:v>
+        <x:v>1245.68460416663</x:v>
       </x:c>
       <x:c r="K13" s="16" t="n">
-        <x:v>2679.0279166667</x:v>
+        <x:v>3867.46039583336</x:v>
       </x:c>
       <x:c r="L13" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>1473.076</x:v>
       </x:c>
       <x:c r="M13" s="16" t="n">
-        <x:v>859.904458333331</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N13" s="16" t="n">
-        <x:v>2250.82337499998</x:v>
+        <x:v>1382.35049999997</x:v>
       </x:c>
       <x:c r="O13" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>2349.20041666663</x:v>
       </x:c>
       <x:c r="P13" s="16" t="n">
-        <x:v>2054.68762499999</x:v>
-      </x:c>
-      <x:c r="AC13" s="17" t="s"/>
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q13" s="16" t="n">
+        <x:v>3766.12483333331</x:v>
+      </x:c>
+      <x:c r="R13" s="16" t="n">
+        <x:v>939.049375000002</x:v>
+      </x:c>
+      <x:c r="AE13" s="17" t="s"/>
     </x:row>
     <x:row r="14" spans="1:146" x14ac:dyDescent="0.25">
       <x:c r="B14" s="14" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C14" s="15" t="n">
-        <x:v>1564.98130871213</x:v>
+        <x:v>1723.57421794869</x:v>
       </x:c>
       <x:c r="D14" s="15" t="n">
-        <x:v>179480.6538125</x:v>
+        <x:v>348434.037124999</x:v>
       </x:c>
       <x:c r="E14" s="16" t="s"/>
       <x:c r="F14" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G14" s="16" t="n">
-        <x:v>76.4843333333265</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H14" s="16" t="n">
-        <x:v>2301.21508333329</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I14" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J14" s="16" t="n">
-        <x:v>2899.33150000006</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K14" s="16" t="n">
-        <x:v>4891.73410416671</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L14" s="16" t="n">
-        <x:v>1170.96383333334</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M14" s="16" t="n">
-        <x:v>544.772249999951</x:v>
+        <x:v>9481.54564583313</x:v>
       </x:c>
       <x:c r="N14" s="16" t="n">
-        <x:v>2542.71854166666</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O14" s="16" t="n">
-        <x:v>2308.78358333337</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P14" s="16" t="n">
-        <x:v>478.791166666691</x:v>
-      </x:c>
-      <x:c r="Z14" s="16" t="s"/>
-      <x:c r="AA14" s="16" t="s"/>
+        <x:v>4529.76175000001</x:v>
+      </x:c>
+      <x:c r="Q14" s="16" t="n">
+        <x:v>5210.65064583317</x:v>
+      </x:c>
+      <x:c r="R14" s="16" t="n">
+        <x:v>3184.50679166667</x:v>
+      </x:c>
       <x:c r="AB14" s="16" t="s"/>
       <x:c r="AC14" s="16" t="s"/>
+      <x:c r="AD14" s="16" t="s"/>
+      <x:c r="AE14" s="16" t="s"/>
     </x:row>
     <x:row r="15" spans="1:146">
       <x:c r="B15" s="14" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="C15" s="15" t="n">
-        <x:v>1273.75521780301</x:v>
+        <x:v>1553.98159775641</x:v>
       </x:c>
       <x:c r="D15" s="15" t="n">
-        <x:v>340038.879687499</x:v>
+        <x:v>182467.6201875</x:v>
       </x:c>
       <x:c r="E15" s="16" t="s"/>
       <x:c r="F15" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G15" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>76.4843333333265</x:v>
       </x:c>
       <x:c r="H15" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>2301.21508333329</x:v>
       </x:c>
       <x:c r="I15" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J15" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>2899.33150000006</x:v>
       </x:c>
       <x:c r="K15" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>4891.73410416671</x:v>
       </x:c>
       <x:c r="L15" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>1170.96383333334</x:v>
       </x:c>
       <x:c r="M15" s="16" t="n">
-        <x:v>9481.54564583313</x:v>
+        <x:v>544.772249999951</x:v>
       </x:c>
       <x:c r="N15" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>2542.71854166666</x:v>
       </x:c>
       <x:c r="O15" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>2308.78358333337</x:v>
       </x:c>
       <x:c r="P15" s="16" t="n">
-        <x:v>4529.76175000001</x:v>
+        <x:v>478.791166666691</x:v>
+      </x:c>
+      <x:c r="Q15" s="16" t="n">
+        <x:v>2981.70187499994</x:v>
+      </x:c>
+      <x:c r="R15" s="16" t="n">
+        <x:v>5.26449999999022</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:146">
@@ -1795,16 +1928,18 @@
       <x:c r="N16" s="16" t="s"/>
       <x:c r="O16" s="16" t="s"/>
       <x:c r="P16" s="16" t="s"/>
+      <x:c r="Q16" s="16" t="s"/>
+      <x:c r="R16" s="16" t="s"/>
     </x:row>
     <x:row r="17" spans="1:146">
       <x:c r="B17" s="14" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C17" s="15" t="n">
-        <x:v>826.203053030296</x:v>
+        <x:v>1047.73535256409</x:v>
       </x:c>
       <x:c r="D17" s="15" t="n">
-        <x:v>68191.0395833326</x:v>
+        <x:v>72723.3655833325</x:v>
       </x:c>
       <x:c r="E17" s="16" t="s"/>
       <x:c r="F17" s="16" t="n">
@@ -1839,6 +1974,12 @@
       </x:c>
       <x:c r="P17" s="16" t="n">
         <x:v>160.905333333314</x:v>
+      </x:c>
+      <x:c r="Q17" s="16" t="n">
+        <x:v>1972.81749999998</x:v>
+      </x:c>
+      <x:c r="R17" s="16" t="n">
+        <x:v>2559.50849999997</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:146">
@@ -1846,7 +1987,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C18" s="15" t="n">
-        <x:v>323.977483333335</x:v>
+        <x:v>231.412488095239</x:v>
       </x:c>
       <x:c r="D18" s="15" t="n">
         <x:v>92122.8818958333</x:v>
@@ -1873,86 +2014,84 @@
       <x:c r="P18" s="16" t="n">
         <x:v>0.770749999996042</x:v>
       </x:c>
+      <x:c r="Q18" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R18" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
     </x:row>
     <x:row r="19" spans="1:146">
       <x:c r="B19" s="14" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C19" s="15" t="n">
-        <x:v>5.58844444444792</x:v>
+        <x:v>1.43462121212162</x:v>
       </x:c>
       <x:c r="D19" s="15" t="n">
-        <x:v>341918.041854167</x:v>
-      </x:c>
-      <x:c r="E19" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
+        <x:v>127006.44025</x:v>
+      </x:c>
+      <x:c r="E19" s="16" t="s"/>
       <x:c r="F19" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G19" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>15.7808333333378</x:v>
       </x:c>
       <x:c r="H19" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="I19" s="16" t="s"/>
-      <x:c r="J19" s="16" t="s"/>
-      <x:c r="K19" s="16" t="s"/>
-      <x:c r="L19" s="16" t="s"/>
-      <x:c r="M19" s="16" t="s"/>
-      <x:c r="N19" s="16" t="s"/>
+      <x:c r="I19" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J19" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K19" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L19" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M19" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N19" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
       <x:c r="O19" s="16" t="n">
-        <x:v>33.5306666666875</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P19" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
+      <x:c r="Q19" s="16" t="s"/>
+      <x:c r="R19" s="16" t="s"/>
     </x:row>
     <x:row r="20" spans="1:146">
       <x:c r="B20" s="14" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C20" s="15" t="n">
-        <x:v>1.43462121212162</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D20" s="15" t="n">
-        <x:v>127006.44025</x:v>
+        <x:v>182675.8245</x:v>
       </x:c>
       <x:c r="E20" s="16" t="s"/>
-      <x:c r="F20" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G20" s="16" t="n">
-        <x:v>15.7808333333378</x:v>
-      </x:c>
-      <x:c r="H20" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I20" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J20" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K20" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L20" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M20" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N20" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="O20" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="P20" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
+      <x:c r="F20" s="16" t="s"/>
+      <x:c r="G20" s="16" t="s"/>
+      <x:c r="H20" s="16" t="s"/>
+      <x:c r="I20" s="16" t="s"/>
+      <x:c r="J20" s="16" t="s"/>
+      <x:c r="K20" s="16" t="s"/>
+      <x:c r="L20" s="16" t="s"/>
+      <x:c r="M20" s="16" t="s"/>
+      <x:c r="N20" s="16" t="s"/>
+      <x:c r="O20" s="16" t="s"/>
+      <x:c r="P20" s="16" t="s"/>
+      <x:c r="Q20" s="16" t="s"/>
+      <x:c r="R20" s="16" t="s"/>
     </x:row>
     <x:row r="21" spans="1:146">
       <x:c r="B21" s="14" t="s">
@@ -1962,7 +2101,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D21" s="15" t="n">
-        <x:v>182675.8245</x:v>
+        <x:v>53082.4165416666</x:v>
       </x:c>
       <x:c r="E21" s="16" t="s"/>
       <x:c r="F21" s="16" t="s"/>
@@ -1976,6 +2115,8 @@
       <x:c r="N21" s="16" t="s"/>
       <x:c r="O21" s="16" t="s"/>
       <x:c r="P21" s="16" t="s"/>
+      <x:c r="Q21" s="16" t="s"/>
+      <x:c r="R21" s="16" t="s"/>
     </x:row>
     <x:row r="22" spans="1:146">
       <x:c r="B22" s="14" t="s">
@@ -1985,7 +2126,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D22" s="15" t="n">
-        <x:v>53082.4165416666</x:v>
+        <x:v>216153.218000001</x:v>
       </x:c>
       <x:c r="E22" s="16" t="s"/>
       <x:c r="F22" s="16" t="s"/>
@@ -1999,6 +2140,8 @@
       <x:c r="N22" s="16" t="s"/>
       <x:c r="O22" s="16" t="s"/>
       <x:c r="P22" s="16" t="s"/>
+      <x:c r="Q22" s="16" t="s"/>
+      <x:c r="R22" s="16" t="s"/>
     </x:row>
     <x:row r="23" spans="1:146">
       <x:c r="B23" s="14" t="s">
@@ -2008,7 +2151,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D23" s="15" t="n">
-        <x:v>216153.218000001</x:v>
+        <x:v>104116.007333333</x:v>
       </x:c>
       <x:c r="E23" s="16" t="s"/>
       <x:c r="F23" s="16" t="s"/>
@@ -2022,6 +2165,8 @@
       <x:c r="N23" s="16" t="s"/>
       <x:c r="O23" s="16" t="s"/>
       <x:c r="P23" s="16" t="s"/>
+      <x:c r="Q23" s="16" t="s"/>
+      <x:c r="R23" s="16" t="s"/>
     </x:row>
     <x:row r="24" spans="1:146">
       <x:c r="B24" s="14" t="s">
@@ -2031,12 +2176,18 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D24" s="15" t="n">
-        <x:v>104116.007333333</x:v>
+        <x:v>410042.268645832</x:v>
       </x:c>
       <x:c r="E24" s="16" t="s"/>
-      <x:c r="F24" s="16" t="s"/>
-      <x:c r="G24" s="16" t="s"/>
-      <x:c r="H24" s="16" t="s"/>
+      <x:c r="F24" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G24" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H24" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
       <x:c r="I24" s="16" t="s"/>
       <x:c r="J24" s="16" t="s"/>
       <x:c r="K24" s="16" t="s"/>
@@ -2045,6 +2196,8 @@
       <x:c r="N24" s="16" t="s"/>
       <x:c r="O24" s="16" t="s"/>
       <x:c r="P24" s="16" t="s"/>
+      <x:c r="Q24" s="16" t="s"/>
+      <x:c r="R24" s="16" t="s"/>
     </x:row>
     <x:row r="25" spans="1:146">
       <x:c r="B25" s="14" t="s">
@@ -2054,18 +2207,12 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D25" s="15" t="n">
-        <x:v>410042.268645832</x:v>
+        <x:v>21277.7408333333</x:v>
       </x:c>
       <x:c r="E25" s="16" t="s"/>
-      <x:c r="F25" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G25" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H25" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
+      <x:c r="F25" s="16" t="s"/>
+      <x:c r="G25" s="16" t="s"/>
+      <x:c r="H25" s="16" t="s"/>
       <x:c r="I25" s="16" t="s"/>
       <x:c r="J25" s="16" t="s"/>
       <x:c r="K25" s="16" t="s"/>
@@ -2074,6 +2221,8 @@
       <x:c r="N25" s="16" t="s"/>
       <x:c r="O25" s="16" t="s"/>
       <x:c r="P25" s="16" t="s"/>
+      <x:c r="Q25" s="16" t="s"/>
+      <x:c r="R25" s="16" t="s"/>
     </x:row>
     <x:row r="26" spans="1:146">
       <x:c r="B26" s="14" t="s">
@@ -2083,7 +2232,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D26" s="15" t="n">
-        <x:v>21277.7408333333</x:v>
+        <x:v>166374.405791667</x:v>
       </x:c>
       <x:c r="E26" s="16" t="s"/>
       <x:c r="F26" s="16" t="s"/>
@@ -2097,6 +2246,8 @@
       <x:c r="N26" s="16" t="s"/>
       <x:c r="O26" s="16" t="s"/>
       <x:c r="P26" s="16" t="s"/>
+      <x:c r="Q26" s="16" t="s"/>
+      <x:c r="R26" s="16" t="s"/>
     </x:row>
     <x:row r="27" spans="1:146">
       <x:c r="B27" s="14" t="s">
@@ -2106,7 +2257,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D27" s="15" t="n">
-        <x:v>166374.405791667</x:v>
+        <x:v>179318.914833333</x:v>
       </x:c>
       <x:c r="E27" s="16" t="s"/>
       <x:c r="F27" s="16" t="s"/>
@@ -2120,6 +2271,8 @@
       <x:c r="N27" s="16" t="s"/>
       <x:c r="O27" s="16" t="s"/>
       <x:c r="P27" s="16" t="s"/>
+      <x:c r="Q27" s="16" t="s"/>
+      <x:c r="R27" s="16" t="s"/>
     </x:row>
     <x:row r="28" spans="1:146">
       <x:c r="B28" s="14" t="s">
@@ -2129,7 +2282,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D28" s="15" t="n">
-        <x:v>179318.914833333</x:v>
+        <x:v>186457.391208333</x:v>
       </x:c>
       <x:c r="E28" s="16" t="s"/>
       <x:c r="F28" s="16" t="s"/>
@@ -2143,6 +2296,8 @@
       <x:c r="N28" s="16" t="s"/>
       <x:c r="O28" s="16" t="s"/>
       <x:c r="P28" s="16" t="s"/>
+      <x:c r="Q28" s="16" t="s"/>
+      <x:c r="R28" s="16" t="s"/>
     </x:row>
     <x:row r="29" spans="1:146">
       <x:c r="B29" s="14" t="s">
@@ -2152,12 +2307,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D29" s="15" t="n">
-        <x:v>186457.391208333</x:v>
+        <x:v>206763.734895833</x:v>
       </x:c>
       <x:c r="E29" s="16" t="s"/>
       <x:c r="F29" s="16" t="s"/>
       <x:c r="G29" s="16" t="s"/>
-      <x:c r="H29" s="16" t="s"/>
+      <x:c r="H29" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
       <x:c r="I29" s="16" t="s"/>
       <x:c r="J29" s="16" t="s"/>
       <x:c r="K29" s="16" t="s"/>
@@ -2166,6 +2323,8 @@
       <x:c r="N29" s="16" t="s"/>
       <x:c r="O29" s="16" t="s"/>
       <x:c r="P29" s="16" t="s"/>
+      <x:c r="Q29" s="16" t="s"/>
+      <x:c r="R29" s="16" t="s"/>
     </x:row>
     <x:row r="30" spans="1:146">
       <x:c r="B30" s="14" t="s">
@@ -2175,14 +2334,12 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D30" s="15" t="n">
-        <x:v>206763.734895833</x:v>
+        <x:v>71871.0044583331</x:v>
       </x:c>
       <x:c r="E30" s="16" t="s"/>
       <x:c r="F30" s="16" t="s"/>
       <x:c r="G30" s="16" t="s"/>
-      <x:c r="H30" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
+      <x:c r="H30" s="16" t="s"/>
       <x:c r="I30" s="16" t="s"/>
       <x:c r="J30" s="16" t="s"/>
       <x:c r="K30" s="16" t="s"/>
@@ -2191,6 +2348,8 @@
       <x:c r="N30" s="16" t="s"/>
       <x:c r="O30" s="16" t="s"/>
       <x:c r="P30" s="16" t="s"/>
+      <x:c r="Q30" s="16" t="s"/>
+      <x:c r="R30" s="16" t="s"/>
     </x:row>
     <x:row r="31" spans="1:146">
       <x:c r="B31" s="14" t="s">
@@ -2200,7 +2359,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D31" s="15" t="n">
-        <x:v>71871.0044583331</x:v>
+        <x:v>56832.4495208333</x:v>
       </x:c>
       <x:c r="E31" s="16" t="s"/>
       <x:c r="F31" s="16" t="s"/>
@@ -2214,6 +2373,8 @@
       <x:c r="N31" s="16" t="s"/>
       <x:c r="O31" s="16" t="s"/>
       <x:c r="P31" s="16" t="s"/>
+      <x:c r="Q31" s="16" t="s"/>
+      <x:c r="R31" s="16" t="s"/>
     </x:row>
     <x:row r="32" spans="1:146">
       <x:c r="B32" s="14" t="s">
@@ -2223,7 +2384,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D32" s="15" t="n">
-        <x:v>56832.4495208333</x:v>
+        <x:v>166757.19775</x:v>
       </x:c>
       <x:c r="E32" s="16" t="s"/>
       <x:c r="F32" s="16" t="s"/>
@@ -2237,6 +2398,8 @@
       <x:c r="N32" s="16" t="s"/>
       <x:c r="O32" s="16" t="s"/>
       <x:c r="P32" s="16" t="s"/>
+      <x:c r="Q32" s="16" t="s"/>
+      <x:c r="R32" s="16" t="s"/>
     </x:row>
     <x:row r="33" spans="1:146">
       <x:c r="B33" s="14" t="s">
@@ -2246,7 +2409,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D33" s="15" t="n">
-        <x:v>166757.19775</x:v>
+        <x:v>37193.5816458334</x:v>
       </x:c>
       <x:c r="E33" s="16" t="s"/>
       <x:c r="F33" s="16" t="s"/>
@@ -2260,6 +2423,8 @@
       <x:c r="N33" s="16" t="s"/>
       <x:c r="O33" s="16" t="s"/>
       <x:c r="P33" s="16" t="s"/>
+      <x:c r="Q33" s="16" t="s"/>
+      <x:c r="R33" s="16" t="s"/>
     </x:row>
     <x:row r="34" spans="1:146">
       <x:c r="B34" s="14" t="s">
@@ -2269,7 +2434,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D34" s="15" t="n">
-        <x:v>37193.5816458334</x:v>
+        <x:v>71165.5647083332</x:v>
       </x:c>
       <x:c r="E34" s="16" t="s"/>
       <x:c r="F34" s="16" t="s"/>
@@ -2283,6 +2448,8 @@
       <x:c r="N34" s="16" t="s"/>
       <x:c r="O34" s="16" t="s"/>
       <x:c r="P34" s="16" t="s"/>
+      <x:c r="Q34" s="16" t="s"/>
+      <x:c r="R34" s="16" t="s"/>
     </x:row>
     <x:row r="35" spans="1:146">
       <x:c r="B35" s="14" t="s">
@@ -2292,7 +2459,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D35" s="15" t="n">
-        <x:v>71165.5647083332</x:v>
+        <x:v>84794.8241666663</x:v>
       </x:c>
       <x:c r="E35" s="16" t="s"/>
       <x:c r="F35" s="16" t="s"/>
@@ -2306,6 +2473,8 @@
       <x:c r="N35" s="16" t="s"/>
       <x:c r="O35" s="16" t="s"/>
       <x:c r="P35" s="16" t="s"/>
+      <x:c r="Q35" s="16" t="s"/>
+      <x:c r="R35" s="16" t="s"/>
     </x:row>
     <x:row r="36" spans="1:146">
       <x:c r="B36" s="14" t="s">
@@ -2315,7 +2484,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D36" s="15" t="n">
-        <x:v>84794.8241666663</x:v>
+        <x:v>84128.5754583333</x:v>
       </x:c>
       <x:c r="E36" s="16" t="s"/>
       <x:c r="F36" s="16" t="s"/>
@@ -2329,6 +2498,8 @@
       <x:c r="N36" s="16" t="s"/>
       <x:c r="O36" s="16" t="s"/>
       <x:c r="P36" s="16" t="s"/>
+      <x:c r="Q36" s="16" t="s"/>
+      <x:c r="R36" s="16" t="s"/>
     </x:row>
     <x:row r="37" spans="1:146">
       <x:c r="B37" s="14" t="s">
@@ -2338,7 +2509,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D37" s="15" t="n">
-        <x:v>84128.5754583333</x:v>
+        <x:v>78403.6077083333</x:v>
       </x:c>
       <x:c r="E37" s="16" t="s"/>
       <x:c r="F37" s="16" t="s"/>
@@ -2352,6 +2523,8 @@
       <x:c r="N37" s="16" t="s"/>
       <x:c r="O37" s="16" t="s"/>
       <x:c r="P37" s="16" t="s"/>
+      <x:c r="Q37" s="16" t="s"/>
+      <x:c r="R37" s="16" t="s"/>
     </x:row>
     <x:row r="38" spans="1:146">
       <x:c r="B38" s="14" t="s">
@@ -2361,7 +2534,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D38" s="15" t="n">
-        <x:v>78403.6077083333</x:v>
+        <x:v>104527.2548125</x:v>
       </x:c>
       <x:c r="E38" s="16" t="s"/>
       <x:c r="F38" s="16" t="s"/>
@@ -2375,6 +2548,8 @@
       <x:c r="N38" s="16" t="s"/>
       <x:c r="O38" s="16" t="s"/>
       <x:c r="P38" s="16" t="s"/>
+      <x:c r="Q38" s="16" t="s"/>
+      <x:c r="R38" s="16" t="s"/>
     </x:row>
     <x:row r="39" spans="1:146">
       <x:c r="B39" s="14" t="s">
@@ -2384,7 +2559,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D39" s="15" t="n">
-        <x:v>104527.2548125</x:v>
+        <x:v>294186.014854166</x:v>
       </x:c>
       <x:c r="E39" s="16" t="s"/>
       <x:c r="F39" s="16" t="s"/>
@@ -2393,11 +2568,15 @@
       <x:c r="I39" s="16" t="s"/>
       <x:c r="J39" s="16" t="s"/>
       <x:c r="K39" s="16" t="s"/>
-      <x:c r="L39" s="16" t="s"/>
+      <x:c r="L39" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
       <x:c r="M39" s="16" t="s"/>
       <x:c r="N39" s="16" t="s"/>
       <x:c r="O39" s="16" t="s"/>
       <x:c r="P39" s="16" t="s"/>
+      <x:c r="Q39" s="16" t="s"/>
+      <x:c r="R39" s="16" t="s"/>
     </x:row>
     <x:row r="40" spans="1:146">
       <x:c r="B40" s="14" t="s">
@@ -2407,7 +2586,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D40" s="15" t="n">
-        <x:v>294186.014854166</x:v>
+        <x:v>78001.2926041665</x:v>
       </x:c>
       <x:c r="E40" s="16" t="s"/>
       <x:c r="F40" s="16" t="s"/>
@@ -2416,13 +2595,15 @@
       <x:c r="I40" s="16" t="s"/>
       <x:c r="J40" s="16" t="s"/>
       <x:c r="K40" s="16" t="s"/>
-      <x:c r="L40" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
+      <x:c r="L40" s="16" t="s"/>
       <x:c r="M40" s="16" t="s"/>
       <x:c r="N40" s="16" t="s"/>
       <x:c r="O40" s="16" t="s"/>
       <x:c r="P40" s="16" t="s"/>
+      <x:c r="Q40" s="16" t="s"/>
+      <x:c r="R40" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
     </x:row>
   </x:sheetData>
   <x:dataConsolidate/>
@@ -2452,9 +2633,9 @@
     <x:col min="3" max="3" width="20.410625" style="0" bestFit="1" customWidth="1"/>
     <x:col min="4" max="5" width="13.270625" style="0" customWidth="1"/>
     <x:col min="6" max="13" width="15.980625" style="0" customWidth="1"/>
-    <x:col min="14" max="14" width="14.700625" style="0" customWidth="1"/>
-    <x:col min="15" max="15" width="15.980625" style="0" customWidth="1"/>
-    <x:col min="16" max="17" width="13.270625" style="0" customWidth="1"/>
+    <x:col min="14" max="15" width="14.700625" style="0" customWidth="1"/>
+    <x:col min="16" max="16" width="17.270625" style="0" customWidth="1"/>
+    <x:col min="17" max="17" width="15.980625" style="0" customWidth="1"/>
     <x:col min="18" max="23" width="8" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
@@ -2552,10 +2733,10 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="P2" s="19" t="s">
-        <x:v>44</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="Q2" s="19" t="s">
-        <x:v>44</x:v>
+        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:36" x14ac:dyDescent="0.25">
@@ -2563,7 +2744,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C3" s="18" t="s">
-        <x:v>56</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D3" s="19" t="s">
         <x:v>44</x:v>
@@ -2587,33 +2768,33 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="K3" s="19" t="s">
-        <x:v>57</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="L3" s="19" t="s">
-        <x:v>58</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="M3" s="19" t="s">
-        <x:v>59</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="N3" s="19" t="s">
-        <x:v>60</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="O3" s="19" t="s">
         <x:v>45</x:v>
       </x:c>
       <x:c r="P3" s="19" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="Q3" s="19" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:36">
       <x:c r="B4" s="14" t="s">
-        <x:v>16</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C4" s="18" t="s">
-        <x:v>61</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="D4" s="19" t="s">
         <x:v>44</x:v>
@@ -2622,48 +2803,48 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="F4" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="G4" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="H4" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="I4" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="J4" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="K4" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="L4" s="19" t="s">
-        <x:v>62</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="M4" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="N4" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="O4" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="P4" s="19" t="s">
-        <x:v>44</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="Q4" s="19" t="s">
-        <x:v>44</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:36">
       <x:c r="B5" s="14" t="s">
-        <x:v>9</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C5" s="18" t="s">
-        <x:v>64</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D5" s="19" t="s">
         <x:v>44</x:v>
@@ -2672,40 +2853,40 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="F5" s="19" t="s">
-        <x:v>65</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="G5" s="19" t="s">
-        <x:v>66</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="H5" s="19" t="s">
-        <x:v>67</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="I5" s="19" t="s">
-        <x:v>68</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="J5" s="19" t="s">
-        <x:v>69</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="K5" s="19" t="s">
-        <x:v>70</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="L5" s="19" t="s">
-        <x:v>71</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="M5" s="19" t="s">
-        <x:v>72</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="N5" s="19" t="s">
-        <x:v>73</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="O5" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="P5" s="19" t="s">
-        <x:v>44</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="Q5" s="19" t="s">
-        <x:v>44</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:36">
@@ -2713,7 +2894,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C6" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D6" s="19" t="s">
         <x:v>44</x:v>
@@ -2722,98 +2903,98 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="F6" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="G6" s="19" t="s">
-        <x:v>77</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="H6" s="19" t="s">
         <x:v>45</x:v>
       </x:c>
       <x:c r="I6" s="19" t="s">
-        <x:v>78</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="J6" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="K6" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="L6" s="19" t="s">
-        <x:v>81</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="M6" s="19" t="s">
-        <x:v>82</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N6" s="19" t="s">
-        <x:v>83</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="O6" s="19" t="s">
-        <x:v>84</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="P6" s="19" t="s">
-        <x:v>44</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="Q6" s="19" t="s">
-        <x:v>44</x:v>
+        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:36">
       <x:c r="B7" s="14" t="s">
-        <x:v>20</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C7" s="18" t="s">
-        <x:v>85</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="D7" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="E7" s="19" t="s">
         <x:v>45</x:v>
       </x:c>
       <x:c r="F7" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="G7" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="H7" s="19" t="s">
-        <x:v>44</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="I7" s="19" t="s">
-        <x:v>44</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="J7" s="19" t="s">
-        <x:v>44</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="K7" s="19" t="s">
-        <x:v>44</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="L7" s="19" t="s">
-        <x:v>44</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="M7" s="19" t="s">
-        <x:v>44</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="N7" s="19" t="s">
-        <x:v>85</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="O7" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="P7" s="19" t="s">
-        <x:v>44</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="Q7" s="19" t="s">
-        <x:v>44</x:v>
+        <x:v>105</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:36">
       <x:c r="B8" s="14" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C8" s="18" t="s">
-        <x:v>86</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="D8" s="19" t="s">
         <x:v>44</x:v>
@@ -2822,48 +3003,48 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="F8" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="G8" s="19" t="s">
-        <x:v>88</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="H8" s="19" t="s">
-        <x:v>89</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="I8" s="19" t="s">
-        <x:v>90</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="J8" s="19" t="s">
-        <x:v>91</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="K8" s="19" t="s">
-        <x:v>92</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="L8" s="19" t="s">
-        <x:v>93</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="M8" s="19" t="s">
-        <x:v>94</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="N8" s="19" t="s">
-        <x:v>95</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="O8" s="19" t="s">
-        <x:v>96</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="P8" s="19" t="s">
-        <x:v>44</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="Q8" s="19" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:36">
       <x:c r="B9" s="14" t="s">
-        <x:v>5</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C9" s="18" t="s">
-        <x:v>97</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="D9" s="19" t="s">
         <x:v>44</x:v>
@@ -2872,40 +3053,40 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="F9" s="19" t="s">
-        <x:v>98</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="G9" s="19" t="s">
-        <x:v>99</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="H9" s="19" t="s">
-        <x:v>100</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="I9" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="J9" s="19" t="s">
-        <x:v>102</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="K9" s="19" t="s">
-        <x:v>103</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="L9" s="19" t="s">
-        <x:v>104</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="M9" s="19" t="s">
-        <x:v>105</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="N9" s="19" t="s">
-        <x:v>106</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="O9" s="19" t="s">
-        <x:v>107</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="P9" s="19" t="s">
-        <x:v>44</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="Q9" s="19" t="s">
-        <x:v>44</x:v>
+        <x:v>130</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:36">
@@ -2913,7 +3094,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C10" s="18" t="s">
-        <x:v>108</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="D10" s="19" t="s">
         <x:v>44</x:v>
@@ -2925,19 +3106,19 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="G10" s="19" t="s">
-        <x:v>109</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="H10" s="19" t="s">
-        <x:v>110</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="I10" s="19" t="s">
-        <x:v>111</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="J10" s="19" t="s">
         <x:v>45</x:v>
       </x:c>
       <x:c r="K10" s="19" t="s">
-        <x:v>112</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="L10" s="19" t="s">
         <x:v>44</x:v>
@@ -2960,10 +3141,10 @@
     </x:row>
     <x:row r="11" spans="1:36">
       <x:c r="B11" s="14" t="s">
-        <x:v>12</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C11" s="18" t="s">
-        <x:v>113</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="D11" s="19" t="s">
         <x:v>44</x:v>
@@ -2972,90 +3153,90 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="F11" s="19" t="s">
-        <x:v>114</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="G11" s="19" t="s">
-        <x:v>115</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="H11" s="19" t="s">
-        <x:v>116</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="I11" s="19" t="s">
-        <x:v>117</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="J11" s="19" t="s">
-        <x:v>118</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="K11" s="19" t="s">
-        <x:v>119</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="L11" s="19" t="s">
-        <x:v>120</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="M11" s="19" t="s">
-        <x:v>121</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="N11" s="19" t="s">
-        <x:v>122</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="O11" s="19" t="s">
-        <x:v>123</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="P11" s="19" t="s">
-        <x:v>44</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="Q11" s="19" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:36">
       <x:c r="B12" s="14" t="s">
-        <x:v>6</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C12" s="18" t="s">
-        <x:v>124</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="D12" s="19" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="E12" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="F12" s="19" t="s">
-        <x:v>125</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="G12" s="19" t="s">
-        <x:v>126</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="H12" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="I12" s="19" t="s">
-        <x:v>127</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="J12" s="19" t="s">
-        <x:v>128</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="K12" s="19" t="s">
-        <x:v>129</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="L12" s="19" t="s">
-        <x:v>130</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="M12" s="19" t="s">
-        <x:v>131</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="N12" s="19" t="s">
-        <x:v>132</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="O12" s="19" t="s">
         <x:v>45</x:v>
       </x:c>
       <x:c r="P12" s="19" t="s">
-        <x:v>44</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="Q12" s="19" t="s">
-        <x:v>44</x:v>
+        <x:v>157</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:36">
@@ -3063,7 +3244,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C13" s="18" t="s">
-        <x:v>133</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="D13" s="19" t="s">
         <x:v>44</x:v>
@@ -3072,48 +3253,48 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="F13" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="G13" s="19" t="s">
-        <x:v>88</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="H13" s="19" t="s">
-        <x:v>135</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="I13" s="19" t="s">
-        <x:v>136</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="J13" s="19" t="s">
-        <x:v>137</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="K13" s="19" t="s">
-        <x:v>138</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="L13" s="19" t="s">
-        <x:v>139</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="M13" s="19" t="s">
-        <x:v>140</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="N13" s="19" t="s">
-        <x:v>141</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="O13" s="19" t="s">
-        <x:v>142</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="P13" s="19" t="s">
-        <x:v>44</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="Q13" s="19" t="s">
-        <x:v>44</x:v>
+        <x:v>169</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:36">
       <x:c r="B14" s="14" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C14" s="18" t="s">
-        <x:v>143</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="D14" s="19" t="s">
         <x:v>44</x:v>
@@ -3122,98 +3303,98 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="F14" s="19" t="s">
-        <x:v>89</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="G14" s="19" t="s">
-        <x:v>144</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="H14" s="19" t="s">
-        <x:v>145</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="I14" s="19" t="s">
-        <x:v>146</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="J14" s="19" t="s">
-        <x:v>147</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="K14" s="19" t="s">
-        <x:v>148</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="L14" s="19" t="s">
-        <x:v>149</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="M14" s="19" t="s">
-        <x:v>150</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="N14" s="19" t="s">
-        <x:v>151</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="O14" s="19" t="s">
-        <x:v>152</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="P14" s="19" t="s">
-        <x:v>44</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="Q14" s="19" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:36">
       <x:c r="B15" s="14" t="s">
-        <x:v>13</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C15" s="18" t="s">
-        <x:v>153</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="D15" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="E15" s="19" t="s">
-        <x:v>154</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="F15" s="19" t="s">
-        <x:v>155</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="G15" s="19" t="s">
-        <x:v>156</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="H15" s="19" t="s">
-        <x:v>157</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="I15" s="19" t="s">
-        <x:v>158</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="J15" s="19" t="s">
-        <x:v>159</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="K15" s="19" t="s">
-        <x:v>160</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="L15" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="M15" s="19" t="s">
-        <x:v>161</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="N15" s="19" t="s">
-        <x:v>162</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="O15" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="P15" s="19" t="s">
-        <x:v>44</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="Q15" s="19" t="s">
-        <x:v>44</x:v>
+        <x:v>187</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:36">
       <x:c r="B16" s="14" t="s">
-        <x:v>14</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C16" s="18" t="s">
-        <x:v>163</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="D16" s="19" t="s">
         <x:v>44</x:v>
@@ -3222,98 +3403,98 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="F16" s="19" t="s">
-        <x:v>164</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="G16" s="19" t="s">
-        <x:v>165</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="H16" s="19" t="s">
-        <x:v>166</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="I16" s="19" t="s">
-        <x:v>167</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="J16" s="19" t="s">
-        <x:v>168</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="K16" s="19" t="s">
         <x:v>45</x:v>
       </x:c>
       <x:c r="L16" s="19" t="s">
-        <x:v>169</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="M16" s="19" t="s">
-        <x:v>170</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="N16" s="19" t="s">
         <x:v>45</x:v>
       </x:c>
       <x:c r="O16" s="19" t="s">
-        <x:v>171</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="P16" s="19" t="s">
-        <x:v>44</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="Q16" s="19" t="s">
-        <x:v>44</x:v>
+        <x:v>198</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:36">
       <x:c r="B17" s="14" t="s">
-        <x:v>4</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C17" s="18" t="s">
-        <x:v>172</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="D17" s="19" t="s">
         <x:v>44</x:v>
       </x:c>
       <x:c r="E17" s="19" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="F17" s="19" t="s">
-        <x:v>44</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="G17" s="19" t="s">
-        <x:v>173</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="H17" s="19" t="s">
-        <x:v>174</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="I17" s="19" t="s">
-        <x:v>175</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="J17" s="19" t="s">
-        <x:v>176</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="K17" s="19" t="s">
-        <x:v>177</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="L17" s="19" t="s">
-        <x:v>178</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="M17" s="19" t="s">
-        <x:v>179</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="N17" s="19" t="s">
-        <x:v>180</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="O17" s="19" t="s">
-        <x:v>181</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="P17" s="19" t="s">
-        <x:v>44</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="Q17" s="19" t="s">
-        <x:v>44</x:v>
+        <x:v>145</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:36">
       <x:c r="B18" s="14" t="s">
-        <x:v>15</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C18" s="18" t="s">
-        <x:v>182</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="D18" s="19" t="s">
         <x:v>44</x:v>
@@ -3322,48 +3503,48 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="F18" s="19" t="s">
-        <x:v>183</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="G18" s="19" t="s">
-        <x:v>184</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="H18" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="I18" s="19" t="s">
-        <x:v>185</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="J18" s="19" t="s">
-        <x:v>186</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="K18" s="19" t="s">
-        <x:v>187</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="L18" s="19" t="s">
-        <x:v>188</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="M18" s="19" t="s">
-        <x:v>189</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="N18" s="19" t="s">
-        <x:v>190</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="O18" s="19" t="s">
-        <x:v>191</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="P18" s="19" t="s">
-        <x:v>44</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="Q18" s="19" t="s">
-        <x:v>44</x:v>
+        <x:v>221</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:36">
       <x:c r="B19" s="14" t="s">
-        <x:v>18</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C19" s="18" t="s">
-        <x:v>192</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D19" s="19" t="s">
         <x:v>44</x:v>
@@ -3372,34 +3553,34 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="F19" s="19" t="s">
-        <x:v>193</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="G19" s="19" t="s">
-        <x:v>194</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="H19" s="19" t="s">
-        <x:v>195</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="I19" s="19" t="s">
-        <x:v>196</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="J19" s="19" t="s">
-        <x:v>197</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="K19" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="L19" s="19" t="s">
-        <x:v>198</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="M19" s="19" t="s">
-        <x:v>199</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="N19" s="19" t="s">
-        <x:v>200</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="O19" s="19" t="s">
-        <x:v>201</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="P19" s="19" t="s">
         <x:v>44</x:v>
@@ -3410,7 +3591,7 @@
     </x:row>
     <x:row r="20" spans="1:36">
       <x:c r="B20" s="14" t="s">
-        <x:v>26</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C20" s="18" t="s">
         <x:v>45</x:v>
@@ -3419,13 +3600,13 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="E20" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="F20" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="G20" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="H20" s="19" t="s">
         <x:v>44</x:v>
@@ -3610,46 +3791,46 @@
     </x:row>
     <x:row r="24" spans="1:36">
       <x:c r="B24" s="14" t="s">
-        <x:v>25</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C24" s="18" t="s">
-        <x:v>45</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="D24" s="19" t="s">
         <x:v>44</x:v>
       </x:c>
       <x:c r="E24" s="19" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="F24" s="19" t="s">
-        <x:v>44</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="G24" s="19" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="H24" s="19" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="I24" s="19" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="J24" s="19" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="K24" s="19" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="L24" s="19" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="M24" s="19" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="N24" s="19" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="O24" s="19" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="P24" s="19" t="s">
         <x:v>44</x:v>
@@ -3660,46 +3841,46 @@
     </x:row>
     <x:row r="25" spans="1:36">
       <x:c r="B25" s="14" t="s">
-        <x:v>21</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C25" s="18" t="s">
-        <x:v>202</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D25" s="19" t="s">
         <x:v>44</x:v>
       </x:c>
       <x:c r="E25" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="F25" s="19" t="s">
-        <x:v>202</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="G25" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="H25" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="I25" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="J25" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="K25" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="L25" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="M25" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="N25" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="O25" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="P25" s="19" t="s">
         <x:v>44</x:v>
@@ -3875,7 +4056,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="G29" s="19" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="H29" s="19" t="s">
         <x:v>44</x:v>
@@ -3925,7 +4106,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="G30" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="H30" s="19" t="s">
         <x:v>44</x:v>
@@ -4387,7 +4568,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="K39" s="19" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="L39" s="19" t="s">
         <x:v>44</x:v>
@@ -4437,7 +4618,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="K40" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="L40" s="19" t="s">
         <x:v>44</x:v>
@@ -4455,7 +4636,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="Q40" s="19" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
